--- a/Data/Calibration/ConsumptionParameters/PCEBridge_2007_Detail.xlsx
+++ b/Data/Calibration/ConsumptionParameters/PCEBridge_2007_Detail.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="60" windowWidth="25580" windowHeight="15340" tabRatio="738" activeTab="4"/>
@@ -4205,7 +4205,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -4214,6 +4214,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4596,7 +4599,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="80">
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -4669,6 +4672,9 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14264,8 +14270,8 @@
   </sheetPr>
   <dimension ref="A1:B405"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A340" sqref="A340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -17509,13 +17515,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L808"/>
+  <dimension ref="A2:J808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A218" sqref="A218:B223"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -17532,20 +17538,20 @@
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:10">
       <c r="A2" s="27" t="s">
         <v>719</v>
       </c>
       <c r="B2" s="27"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:10">
       <c r="A3" s="27" t="s">
         <v>714</v>
       </c>
       <c r="B3" s="27"/>
     </row>
-    <row r="4" spans="1:12" ht="12" customHeight="1"/>
-    <row r="5" spans="1:12">
+    <row r="4" spans="1:10" ht="12" customHeight="1"/>
+    <row r="5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="D5" s="3"/>
@@ -17564,7 +17570,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:10">
       <c r="A6" s="28" t="s">
         <v>718</v>
       </c>
@@ -17590,7 +17596,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:10">
       <c r="A7" s="62">
         <v>7</v>
       </c>
@@ -17621,16 +17627,8 @@
       <c r="J7" s="6">
         <v>2007</v>
       </c>
-      <c r="K7">
-        <f>H7+G7+F7+E7</f>
-        <v>59243</v>
-      </c>
-      <c r="L7">
-        <f>I7-K7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="46">
         <v>7</v>
       </c>
@@ -17661,16 +17659,8 @@
       <c r="J8" s="7">
         <v>2007</v>
       </c>
-      <c r="K8">
-        <f t="shared" ref="K8:K33" si="0">H8+G8+F8+E8</f>
-        <v>99</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ref="L8:L33" si="1">I8-K8</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="46">
         <v>8</v>
       </c>
@@ -17701,16 +17691,8 @@
       <c r="J9" s="7">
         <v>2007</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>35831</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="46">
         <v>9</v>
       </c>
@@ -17741,16 +17723,8 @@
       <c r="J10" s="7">
         <v>2007</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>137979</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="46">
         <v>11</v>
       </c>
@@ -17781,16 +17755,8 @@
       <c r="J11" s="7">
         <v>2007</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>-624</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="46">
         <v>11</v>
       </c>
@@ -17821,16 +17787,8 @@
       <c r="J12" s="7">
         <v>2007</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>53539</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="46">
         <v>15</v>
       </c>
@@ -17861,16 +17819,8 @@
       <c r="J13" s="7">
         <v>2007</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>-1365</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="46">
         <v>15</v>
       </c>
@@ -17901,16 +17851,8 @@
       <c r="J14" s="7">
         <v>2007</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>59629</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="46">
         <v>19</v>
       </c>
@@ -17941,16 +17883,8 @@
       <c r="J15" s="7">
         <v>2007</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>22117</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="46">
         <v>19</v>
       </c>
@@ -17981,16 +17915,8 @@
       <c r="J16" s="7">
         <v>2007</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="46">
         <v>20</v>
       </c>
@@ -18021,16 +17947,8 @@
       <c r="J17" s="7">
         <v>2007</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="46">
         <v>20</v>
       </c>
@@ -18061,16 +17979,8 @@
       <c r="J18" s="7">
         <v>2007</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="46">
         <v>20</v>
       </c>
@@ -18101,16 +18011,8 @@
       <c r="J19" s="7">
         <v>2007</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>436</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="46">
         <v>20</v>
       </c>
@@ -18141,16 +18043,8 @@
       <c r="J20" s="7">
         <v>2007</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>167</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="46">
         <v>20</v>
       </c>
@@ -18181,16 +18075,8 @@
       <c r="J21" s="7">
         <v>2007</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="46">
         <v>20</v>
       </c>
@@ -18221,16 +18107,8 @@
       <c r="J22" s="7">
         <v>2007</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="46">
         <v>20</v>
       </c>
@@ -18261,16 +18139,8 @@
       <c r="J23" s="7">
         <v>2007</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>434</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="46">
         <v>20</v>
       </c>
@@ -18301,16 +18171,8 @@
       <c r="J24" s="7">
         <v>2007</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>3138</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="46">
         <v>20</v>
       </c>
@@ -18341,16 +18203,8 @@
       <c r="J25" s="7">
         <v>2007</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>3453</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="46">
         <v>20</v>
       </c>
@@ -18381,16 +18235,8 @@
       <c r="J26" s="7">
         <v>2007</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="0"/>
-        <v>6641</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="46">
         <v>20</v>
       </c>
@@ -18421,16 +18267,8 @@
       <c r="J27" s="7">
         <v>2007</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>2543</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="46">
         <v>20</v>
       </c>
@@ -18461,16 +18299,8 @@
       <c r="J28" s="7">
         <v>2007</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="0"/>
-        <v>3966</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="46">
         <v>20</v>
       </c>
@@ -18501,16 +18331,8 @@
       <c r="J29" s="7">
         <v>2007</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="46">
         <v>20</v>
       </c>
@@ -18541,16 +18363,8 @@
       <c r="J30" s="7">
         <v>2007</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>9980</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="46">
         <v>20</v>
       </c>
@@ -18581,16 +18395,8 @@
       <c r="J31" s="7">
         <v>2007</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>442</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="46">
         <v>20</v>
       </c>
@@ -18621,16 +18427,8 @@
       <c r="J32" s="7">
         <v>2007</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="0"/>
-        <v>536</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="46">
         <v>20</v>
       </c>
@@ -18661,16 +18459,8 @@
       <c r="J33" s="7">
         <v>2007</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="0"/>
-        <v>675</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="46">
         <v>20</v>
       </c>
@@ -18702,7 +18492,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:10">
       <c r="A35" s="46">
         <v>20</v>
       </c>
@@ -18734,7 +18524,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:10">
       <c r="A36" s="46">
         <v>20</v>
       </c>
@@ -18766,7 +18556,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:10">
       <c r="A37" s="46">
         <v>23</v>
       </c>
@@ -18798,7 +18588,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:10">
       <c r="A38" s="46">
         <v>23</v>
       </c>
@@ -18830,7 +18620,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:10">
       <c r="A39" s="46">
         <v>23</v>
       </c>
@@ -18862,7 +18652,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:10">
       <c r="A40" s="46">
         <v>23</v>
       </c>
@@ -18894,7 +18684,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:10">
       <c r="A41" s="46">
         <v>23</v>
       </c>
@@ -18926,7 +18716,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:10">
       <c r="A42" s="46">
         <v>23</v>
       </c>
@@ -18958,7 +18748,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:10">
       <c r="A43" s="46">
         <v>23</v>
       </c>
@@ -18990,7 +18780,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:10">
       <c r="A44" s="46">
         <v>23</v>
       </c>
@@ -19022,7 +18812,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:10">
       <c r="A45" s="46">
         <v>23</v>
       </c>
@@ -19054,7 +18844,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:10">
       <c r="A46" s="46">
         <v>23</v>
       </c>
@@ -19086,7 +18876,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:10">
       <c r="A47" s="46">
         <v>24</v>
       </c>
@@ -19118,7 +18908,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:10">
       <c r="A48" s="46">
         <v>24</v>
       </c>
